--- a/data/trans_orig/P34-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76139AFC-DB61-4B98-9503-B5EF996AEF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6099A65-C55C-44FF-9FF2-BF839358185C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4849258B-7C4D-437C-AAD1-4B862039C5BA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{98CCBC7C-C4AF-4B3D-B3B1-2AC6100833F0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="566">
   <si>
     <t>Población según el ejercicio físico que implica su actividad laboral en 2007 (Tasa respuesta: 99,11%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>7,71%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
   </si>
   <si>
     <t>5,8%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
   </si>
   <si>
     <t>Caminando, llevando algún peso, desplazamientos frecuentes</t>
@@ -107,25 +107,25 @@
     <t>12,18%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>6,84%</t>
+    <t>6,92%</t>
   </si>
   <si>
     <t>9,19%</t>
@@ -137,28 +137,28 @@
     <t>43,11%</t>
   </si>
   <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
   </si>
   <si>
     <t>60,09%</t>
   </si>
   <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
   </si>
   <si>
     <t>52,64%</t>
   </si>
   <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
   </si>
   <si>
     <t>Sentado la mayor parte de la jornada</t>
@@ -167,1582 +167,1576 @@
     <t>37,0%</t>
   </si>
   <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
   </si>
   <si>
     <t>30,94%</t>
   </si>
   <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el ejercicio físico que implica su actividad laboral en 2012 (Tasa respuesta: 99,28%)</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>Población según el ejercicio físico que implica su actividad laboral en 2015 (Tasa respuesta: 99,41%)</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>Población según el ejercicio físico que implica su actividad laboral en 2023 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
     <t>28,46%</t>
   </si>
   <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el ejercicio físico que implica su actividad laboral en 2012 (Tasa respuesta: 99,28%)</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>Población según el ejercicio físico que implica su actividad laboral en 2015 (Tasa respuesta: 99,41%)</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>Población según el ejercicio físico que implica su actividad laboral en 2023 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
   </si>
   <si>
     <t>31,92%</t>
   </si>
   <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
+    <t>39,89%</t>
   </si>
   <si>
     <t>42,38%</t>
   </si>
   <si>
-    <t>39,37%</t>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
   </si>
   <si>
     <t>46,21%</t>
   </si>
   <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
+    <t>54,19%</t>
   </si>
   <si>
     <t>42,57%</t>
   </si>
   <si>
-    <t>40,98%</t>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
   </si>
   <si>
     <t>35,71%</t>
   </si>
   <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
   </si>
   <si>
     <t>33,26%</t>
   </si>
   <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
     <t>34,41%</t>
   </si>
   <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
   </si>
 </sst>
 </file>
@@ -2154,7 +2148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB09FE3C-56AF-4C2C-8B95-D9F0ED51DF86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0B55DB-3C7D-443A-96CE-28A6B20E6EFD}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2568,10 +2562,10 @@
         <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,13 +2580,13 @@
         <v>343110</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>140</v>
@@ -2601,13 +2595,13 @@
         <v>148001</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>468</v>
@@ -2616,13 +2610,13 @@
         <v>491112</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2631,13 @@
         <v>584450</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>917</v>
@@ -2652,13 +2646,13 @@
         <v>942798</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>1478</v>
@@ -2667,13 +2661,13 @@
         <v>1527249</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,13 +2682,13 @@
         <v>598896</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>419</v>
@@ -2703,13 +2697,13 @@
         <v>417543</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>1017</v>
@@ -2718,13 +2712,13 @@
         <v>1016440</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,7 +2774,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2792,13 +2786,13 @@
         <v>12684</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -2807,13 +2801,13 @@
         <v>12444</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -2822,13 +2816,13 @@
         <v>25128</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,13 +2837,13 @@
         <v>52502</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>20</v>
@@ -2858,13 +2852,13 @@
         <v>20917</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>71</v>
@@ -2873,13 +2867,13 @@
         <v>73419</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2888,13 @@
         <v>200341</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>202</v>
@@ -2909,13 +2903,13 @@
         <v>213768</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>389</v>
@@ -2924,13 +2918,13 @@
         <v>414109</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2939,13 @@
         <v>281495</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>217</v>
@@ -2960,13 +2954,13 @@
         <v>227231</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>491</v>
@@ -2975,13 +2969,13 @@
         <v>508726</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3043,13 @@
         <v>242261</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>134</v>
@@ -3064,13 +3058,13 @@
         <v>135360</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>365</v>
@@ -3079,13 +3073,13 @@
         <v>377621</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3094,13 @@
         <v>519716</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>220</v>
@@ -3115,13 +3109,13 @@
         <v>229773</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>715</v>
@@ -3130,13 +3124,13 @@
         <v>749489</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,13 +3145,13 @@
         <v>1223899</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>1889</v>
@@ -3166,13 +3160,13 @@
         <v>1939911</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>3083</v>
@@ -3181,13 +3175,13 @@
         <v>3163810</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,13 +3196,13 @@
         <v>1257296</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>1029</v>
@@ -3217,13 +3211,13 @@
         <v>1048141</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>2290</v>
@@ -3232,13 +3226,13 @@
         <v>2305437</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,7 +3288,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3313,7 +3307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8ED954-3AD6-46FD-892A-9D556C1F08C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861ADAA6-DD5E-4CDD-AF78-CD6B69E82537}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3330,7 +3324,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3437,13 +3431,13 @@
         <v>25833</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -3452,13 +3446,13 @@
         <v>6209</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -3467,13 +3461,13 @@
         <v>32043</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,13 +3482,13 @@
         <v>109526</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>97</v>
@@ -3503,13 +3497,13 @@
         <v>104769</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>198</v>
@@ -3518,13 +3512,13 @@
         <v>214295</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,13 +3533,13 @@
         <v>497898</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H6" s="7">
         <v>696</v>
@@ -3554,13 +3548,13 @@
         <v>746044</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M6" s="7">
         <v>1166</v>
@@ -3569,13 +3563,13 @@
         <v>1243942</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,13 +3584,13 @@
         <v>335904</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H7" s="7">
         <v>439</v>
@@ -3605,13 +3599,13 @@
         <v>471332</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M7" s="7">
         <v>746</v>
@@ -3620,13 +3614,13 @@
         <v>807236</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3688,13 @@
         <v>103858</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -3709,13 +3703,13 @@
         <v>11931</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M9" s="7">
         <v>112</v>
@@ -3724,13 +3718,13 @@
         <v>115789</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3739,13 @@
         <v>306255</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>178</v>
@@ -3760,13 +3754,13 @@
         <v>192432</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>98</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>471</v>
@@ -3775,13 +3769,13 @@
         <v>498687</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +3790,13 @@
         <v>988043</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H11" s="7">
         <v>1052</v>
@@ -3811,13 +3805,13 @@
         <v>1135039</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M11" s="7">
         <v>1982</v>
@@ -3826,13 +3820,13 @@
         <v>2123082</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3841,13 @@
         <v>551545</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H12" s="7">
         <v>383</v>
@@ -3862,13 +3856,13 @@
         <v>407996</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M12" s="7">
         <v>902</v>
@@ -3877,13 +3871,13 @@
         <v>959541</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,7 +3933,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3951,13 +3945,13 @@
         <v>7975</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -3966,13 +3960,13 @@
         <v>5654</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -3981,13 +3975,13 @@
         <v>13628</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +3996,13 @@
         <v>45352</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>243</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H15" s="7">
         <v>28</v>
@@ -4017,13 +4011,13 @@
         <v>32227</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M15" s="7">
         <v>68</v>
@@ -4032,13 +4026,13 @@
         <v>77579</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4047,13 @@
         <v>236313</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H16" s="7">
         <v>237</v>
@@ -4068,13 +4062,13 @@
         <v>259778</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>118</v>
+        <v>255</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M16" s="7">
         <v>451</v>
@@ -4083,13 +4077,13 @@
         <v>496091</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4098,13 @@
         <v>187537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -4119,13 +4113,13 @@
         <v>155072</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>311</v>
@@ -4134,13 +4128,13 @@
         <v>342610</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4202,13 @@
         <v>137666</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -4223,13 +4217,13 @@
         <v>23793</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M19" s="7">
         <v>154</v>
@@ -4238,13 +4232,13 @@
         <v>161460</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4253,13 @@
         <v>461133</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H20" s="7">
         <v>303</v>
@@ -4274,13 +4268,13 @@
         <v>329427</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>737</v>
@@ -4289,13 +4283,13 @@
         <v>790561</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4304,13 @@
         <v>1722254</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="H21" s="7">
         <v>1985</v>
@@ -4325,13 +4319,13 @@
         <v>2140860</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>286</v>
+        <v>219</v>
       </c>
       <c r="M21" s="7">
         <v>3599</v>
@@ -4340,13 +4334,13 @@
         <v>3863115</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4355,13 @@
         <v>1074987</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>292</v>
+        <v>196</v>
       </c>
       <c r="H22" s="7">
         <v>960</v>
@@ -4376,13 +4370,13 @@
         <v>1034400</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M22" s="7">
         <v>1959</v>
@@ -4391,13 +4385,13 @@
         <v>2109387</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,7 +4447,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4472,7 +4466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EBF9F5-1FDA-4ED8-B7C5-57890908587E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50DDED3-CFE8-49CE-996A-9F419C270D66}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4489,7 +4483,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4596,13 +4590,13 @@
         <v>11893</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4611,13 +4605,13 @@
         <v>3830</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>198</v>
+        <v>305</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4626,13 +4620,13 @@
         <v>15723</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,13 +4641,13 @@
         <v>75197</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
@@ -4662,13 +4656,13 @@
         <v>44163</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="M5" s="7">
         <v>114</v>
@@ -4677,13 +4671,13 @@
         <v>119360</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4692,13 @@
         <v>323957</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>114</v>
+        <v>321</v>
       </c>
       <c r="H6" s="7">
         <v>486</v>
@@ -4713,13 +4707,13 @@
         <v>521533</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M6" s="7">
         <v>809</v>
@@ -4728,13 +4722,13 @@
         <v>845491</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4743,13 @@
         <v>339653</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>354</v>
@@ -4764,13 +4758,13 @@
         <v>419717</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>707</v>
@@ -4779,13 +4773,13 @@
         <v>759370</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4847,13 @@
         <v>71409</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>271</v>
+        <v>163</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -4868,13 +4862,13 @@
         <v>12250</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="M9" s="7">
         <v>79</v>
@@ -4883,13 +4877,13 @@
         <v>83658</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>339</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4898,13 @@
         <v>271396</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H10" s="7">
         <v>169</v>
@@ -4919,13 +4913,13 @@
         <v>175056</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>420</v>
@@ -4934,13 +4928,13 @@
         <v>446451</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4949,13 @@
         <v>1077601</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>1256</v>
@@ -4970,13 +4964,13 @@
         <v>1299355</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M11" s="7">
         <v>2274</v>
@@ -4985,13 +4979,13 @@
         <v>2376957</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>356</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +5000,13 @@
         <v>640375</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H12" s="7">
         <v>465</v>
@@ -5021,13 +5015,13 @@
         <v>495479</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M12" s="7">
         <v>1067</v>
@@ -5036,13 +5030,13 @@
         <v>1135855</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>152</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,7 +5092,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5110,13 +5104,13 @@
         <v>7227</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5125,13 +5119,13 @@
         <v>1043</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -5140,13 +5134,13 @@
         <v>8270</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>372</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,13 +5155,13 @@
         <v>41032</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H15" s="7">
         <v>43</v>
@@ -5176,13 +5170,13 @@
         <v>44035</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M15" s="7">
         <v>79</v>
@@ -5191,13 +5185,13 @@
         <v>85068</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>207</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,13 +5206,13 @@
         <v>241706</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>300</v>
@@ -5227,13 +5221,13 @@
         <v>313268</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>523</v>
@@ -5242,13 +5236,13 @@
         <v>554974</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,13 +5257,13 @@
         <v>250962</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>178</v>
@@ -5278,13 +5272,13 @@
         <v>186501</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>409</v>
@@ -5293,13 +5287,13 @@
         <v>437463</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5361,13 @@
         <v>90528</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>15</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -5382,13 +5376,13 @@
         <v>17123</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M19" s="7">
         <v>101</v>
@@ -5397,13 +5391,13 @@
         <v>107651</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5412,13 @@
         <v>387625</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -5433,13 +5427,13 @@
         <v>263254</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>613</v>
@@ -5448,13 +5442,13 @@
         <v>650879</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,13 +5463,13 @@
         <v>1643264</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H21" s="7">
         <v>2042</v>
@@ -5484,13 +5478,13 @@
         <v>2134157</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M21" s="7">
         <v>3606</v>
@@ -5499,13 +5493,13 @@
         <v>3777422</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5514,13 @@
         <v>1230990</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>997</v>
@@ -5535,13 +5529,13 @@
         <v>1101698</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>432</v>
+        <v>264</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M22" s="7">
         <v>2183</v>
@@ -5550,13 +5544,13 @@
         <v>2332688</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,7 +5606,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5631,7 +5625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A98805A-916A-479A-8C57-01DA3E460B7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B0C513-7085-402B-86B4-CB08C001ADDA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5648,7 +5642,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5755,13 +5749,13 @@
         <v>31680</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5770,13 +5764,13 @@
         <v>4816</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -5785,13 +5779,13 @@
         <v>36495</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5800,13 @@
         <v>98855</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="H5" s="7">
         <v>131</v>
@@ -5821,13 +5815,13 @@
         <v>78908</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="M5" s="7">
         <v>259</v>
@@ -5836,13 +5830,13 @@
         <v>177763</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +5851,13 @@
         <v>178002</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="H6" s="7">
         <v>557</v>
@@ -5872,13 +5866,13 @@
         <v>334081</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="M6" s="7">
         <v>769</v>
@@ -5887,13 +5881,13 @@
         <v>512084</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5908,13 +5902,13 @@
         <v>229688</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="H7" s="7">
         <v>721</v>
@@ -5923,13 +5917,13 @@
         <v>408824</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="M7" s="7">
         <v>1030</v>
@@ -5938,13 +5932,13 @@
         <v>638512</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6012,13 +6006,13 @@
         <v>185843</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="H9" s="7">
         <v>81</v>
@@ -6027,10 +6021,10 @@
         <v>59570</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>476</v>
+        <v>342</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>15</v>
@@ -6042,13 +6036,13 @@
         <v>245412</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>477</v>
+        <v>105</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>479</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,13 +6057,13 @@
         <v>536856</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H10" s="7">
         <v>590</v>
@@ -6078,13 +6072,13 @@
         <v>448498</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M10" s="7">
         <v>1042</v>
@@ -6093,13 +6087,13 @@
         <v>985354</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>482</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,13 +6108,13 @@
         <v>789680</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>155</v>
+        <v>486</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H11" s="7">
         <v>1520</v>
@@ -6129,13 +6123,13 @@
         <v>1192447</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="M11" s="7">
         <v>2274</v>
@@ -6144,13 +6138,13 @@
         <v>1982127</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,13 +6159,13 @@
         <v>628145</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="H12" s="7">
         <v>717</v>
@@ -6180,13 +6174,13 @@
         <v>540705</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M12" s="7">
         <v>1321</v>
@@ -6195,13 +6189,13 @@
         <v>1168849</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6257,7 +6251,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6269,13 +6263,13 @@
         <v>10385</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -6284,13 +6278,13 @@
         <v>11134</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -6299,13 +6293,13 @@
         <v>21520</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6320,10 +6314,10 @@
         <v>82034</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>511</v>
@@ -6544,10 +6538,10 @@
         <v>539</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="M19" s="7">
         <v>323</v>
@@ -6559,7 +6553,7 @@
         <v>541</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>202</v>
+        <v>444</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>542</v>
@@ -6595,7 +6589,7 @@
         <v>546</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>547</v>
@@ -6631,10 +6625,10 @@
         <v>551</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>553</v>
       </c>
       <c r="H21" s="7">
         <v>2522</v>
@@ -6643,28 +6637,28 @@
         <v>1828018</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="M21" s="7">
         <v>3736</v>
       </c>
       <c r="N21" s="7">
-        <v>3033636</v>
+        <v>3033637</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,25 +6691,25 @@
         <v>562</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>563</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>564</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>3099</v>
       </c>
       <c r="N22" s="7">
-        <v>2452018</v>
+        <v>2452019</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,7 +6751,7 @@
         <v>8672</v>
       </c>
       <c r="N23" s="7">
-        <v>7125600</v>
+        <v>7125601</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -6771,7 +6765,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6099A65-C55C-44FF-9FF2-BF839358185C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B972C676-29D8-45C3-A655-3BD44A556B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{98CCBC7C-C4AF-4B3D-B3B1-2AC6100833F0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D492E52C-80DA-4CE3-9904-4250970F8195}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="567">
   <si>
     <t>Población según el ejercicio físico que implica su actividad laboral en 2007 (Tasa respuesta: 99,11%)</t>
   </si>
@@ -77,1611 +77,1617 @@
     <t>7,71%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>Caminando, llevando algún peso, desplazamientos frecuentes</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>De pie la mayor parte sin grandes desplazamientos o esfuerzo</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>Sentado la mayor parte de la jornada</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el ejercicio físico que implica su actividad laboral en 2012 (Tasa respuesta: 99,28%)</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>Población según el ejercicio físico que implica su actividad laboral en 2016 (Tasa respuesta: 99,41%)</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>Población según el ejercicio físico que implica su actividad laboral en 2023 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>Caminando, llevando algún peso, desplazamientos frecuentes</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>De pie la mayor parte sin grandes desplazamientos o esfuerzo</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>Sentado la mayor parte de la jornada</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
     <t>5,6%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
   </si>
   <si>
     <t>14,75%</t>
   </si>
   <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el ejercicio físico que implica su actividad laboral en 2012 (Tasa respuesta: 99,28%)</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>Población según el ejercicio físico que implica su actividad laboral en 2015 (Tasa respuesta: 99,41%)</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>Población según el ejercicio físico que implica su actividad laboral en 2023 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
     <t>17,87%</t>
   </si>
   <si>
@@ -1719,9 +1725,6 @@
   </si>
   <si>
     <t>35,71%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
   </si>
   <si>
     <t>37,81%</t>
@@ -2148,7 +2151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0B55DB-3C7D-443A-96CE-28A6B20E6EFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6D3EDC-A4D3-47BD-A101-F6CBF8318639}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2598,10 +2601,10 @@
         <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>468</v>
@@ -2610,13 +2613,13 @@
         <v>491112</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,13 +2634,13 @@
         <v>584450</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>917</v>
@@ -2646,13 +2649,13 @@
         <v>942798</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>1478</v>
@@ -2661,13 +2664,13 @@
         <v>1527249</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2685,13 @@
         <v>598896</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>419</v>
@@ -2697,13 +2700,13 @@
         <v>417543</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>1017</v>
@@ -2712,13 +2715,13 @@
         <v>1016440</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,7 +2777,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2786,13 +2789,13 @@
         <v>12684</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -2801,13 +2804,13 @@
         <v>12444</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -2816,13 +2819,13 @@
         <v>25128</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,13 +2840,13 @@
         <v>52502</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>20</v>
@@ -2852,13 +2855,13 @@
         <v>20917</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>71</v>
@@ -2867,13 +2870,13 @@
         <v>73419</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,13 +2891,13 @@
         <v>200341</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>202</v>
@@ -2903,13 +2906,13 @@
         <v>213768</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>389</v>
@@ -2918,13 +2921,13 @@
         <v>414109</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,13 +2942,13 @@
         <v>281495</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>217</v>
@@ -2954,13 +2957,13 @@
         <v>227231</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>491</v>
@@ -2969,13 +2972,13 @@
         <v>508726</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3046,13 @@
         <v>242261</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>134</v>
@@ -3058,13 +3061,13 @@
         <v>135360</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>365</v>
@@ -3073,13 +3076,13 @@
         <v>377621</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3097,13 @@
         <v>519716</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>220</v>
@@ -3109,13 +3112,13 @@
         <v>229773</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>715</v>
@@ -3124,13 +3127,13 @@
         <v>749489</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3148,13 @@
         <v>1223899</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>1889</v>
@@ -3160,13 +3163,13 @@
         <v>1939911</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>3083</v>
@@ -3175,13 +3178,13 @@
         <v>3163810</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3199,13 @@
         <v>1257296</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>1029</v>
@@ -3211,13 +3214,13 @@
         <v>1048141</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>2290</v>
@@ -3226,13 +3229,13 @@
         <v>2305437</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,7 +3291,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3307,7 +3310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861ADAA6-DD5E-4CDD-AF78-CD6B69E82537}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACE2613-7702-4EC2-82D2-7DACA02933C0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3324,7 +3327,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3431,13 +3434,13 @@
         <v>25833</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -3446,13 +3449,13 @@
         <v>6209</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -3461,13 +3464,13 @@
         <v>32043</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3485,13 @@
         <v>109526</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>97</v>
@@ -3497,13 +3500,13 @@
         <v>104769</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>198</v>
@@ -3512,13 +3515,13 @@
         <v>214295</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,13 +3536,13 @@
         <v>497898</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>696</v>
@@ -3548,13 +3551,13 @@
         <v>746044</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M6" s="7">
         <v>1166</v>
@@ -3563,13 +3566,13 @@
         <v>1243942</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3587,13 @@
         <v>335904</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H7" s="7">
         <v>439</v>
@@ -3599,13 +3602,13 @@
         <v>471332</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M7" s="7">
         <v>746</v>
@@ -3614,13 +3617,13 @@
         <v>807236</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3691,13 @@
         <v>103858</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -3703,13 +3706,13 @@
         <v>11931</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M9" s="7">
         <v>112</v>
@@ -3718,13 +3721,13 @@
         <v>115789</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +3742,13 @@
         <v>306255</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>178</v>
@@ -3754,13 +3757,13 @@
         <v>192432</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M10" s="7">
         <v>471</v>
@@ -3769,13 +3772,13 @@
         <v>498687</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,13 +3793,13 @@
         <v>988043</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H11" s="7">
         <v>1052</v>
@@ -3805,13 +3808,13 @@
         <v>1135039</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M11" s="7">
         <v>1982</v>
@@ -3820,13 +3823,13 @@
         <v>2123082</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>222</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3844,13 @@
         <v>551545</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H12" s="7">
         <v>383</v>
@@ -3856,13 +3859,13 @@
         <v>407996</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M12" s="7">
         <v>902</v>
@@ -3871,13 +3874,13 @@
         <v>959541</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,7 +3936,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3945,13 +3948,13 @@
         <v>7975</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -3960,13 +3963,13 @@
         <v>5654</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -3975,13 +3978,13 @@
         <v>13628</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +3999,13 @@
         <v>45352</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H15" s="7">
         <v>28</v>
@@ -4011,13 +4014,13 @@
         <v>32227</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M15" s="7">
         <v>68</v>
@@ -4026,13 +4029,13 @@
         <v>77579</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4050,13 @@
         <v>236313</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>237</v>
@@ -4062,13 +4065,13 @@
         <v>259778</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>451</v>
@@ -4077,13 +4080,13 @@
         <v>496091</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4101,13 @@
         <v>187537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -4113,13 +4116,13 @@
         <v>155072</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>311</v>
@@ -4128,13 +4131,13 @@
         <v>342610</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4205,13 @@
         <v>137666</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -4217,13 +4220,13 @@
         <v>23793</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M19" s="7">
         <v>154</v>
@@ -4232,13 +4235,13 @@
         <v>161460</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4256,13 @@
         <v>461133</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>303</v>
@@ -4268,13 +4271,13 @@
         <v>329427</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M20" s="7">
         <v>737</v>
@@ -4283,13 +4286,13 @@
         <v>790561</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4307,13 @@
         <v>1722254</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H21" s="7">
         <v>1985</v>
@@ -4319,13 +4322,13 @@
         <v>2140860</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="M21" s="7">
         <v>3599</v>
@@ -4334,13 +4337,13 @@
         <v>3863115</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,13 +4358,13 @@
         <v>1074987</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>196</v>
+        <v>293</v>
       </c>
       <c r="H22" s="7">
         <v>960</v>
@@ -4370,13 +4373,13 @@
         <v>1034400</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M22" s="7">
         <v>1959</v>
@@ -4385,13 +4388,13 @@
         <v>2109387</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,7 +4450,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4466,7 +4469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50DDED3-CFE8-49CE-996A-9F419C270D66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E41DF2-2D28-4830-93B7-865FA13D57E9}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4483,7 +4486,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4590,13 +4593,13 @@
         <v>11893</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4605,13 +4608,13 @@
         <v>3830</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4620,13 +4623,13 @@
         <v>15723</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,13 +4644,13 @@
         <v>75197</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
@@ -4656,13 +4659,13 @@
         <v>44163</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>316</v>
+        <v>12</v>
       </c>
       <c r="M5" s="7">
         <v>114</v>
@@ -4671,13 +4674,13 @@
         <v>119360</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>314</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4695,13 @@
         <v>323957</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H6" s="7">
         <v>486</v>
@@ -4707,13 +4710,13 @@
         <v>521533</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>324</v>
+        <v>144</v>
       </c>
       <c r="M6" s="7">
         <v>809</v>
@@ -4722,13 +4725,13 @@
         <v>845491</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4746,13 @@
         <v>339653</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="H7" s="7">
         <v>354</v>
@@ -4758,13 +4761,13 @@
         <v>419717</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>707</v>
@@ -4773,13 +4776,13 @@
         <v>759370</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4850,13 @@
         <v>71409</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>163</v>
+        <v>334</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -4862,13 +4865,13 @@
         <v>12250</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M9" s="7">
         <v>79</v>
@@ -4877,13 +4880,13 @@
         <v>83658</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>92</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4901,13 @@
         <v>271396</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>133</v>
       </c>
       <c r="H10" s="7">
         <v>169</v>
@@ -4913,13 +4916,13 @@
         <v>175056</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M10" s="7">
         <v>420</v>
@@ -4928,13 +4931,13 @@
         <v>446451</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4952,13 @@
         <v>1077601</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>355</v>
+        <v>248</v>
       </c>
       <c r="H11" s="7">
         <v>1256</v>
@@ -4964,13 +4967,13 @@
         <v>1299355</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M11" s="7">
         <v>2274</v>
@@ -4979,13 +4982,13 @@
         <v>2376957</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>356</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5003,13 @@
         <v>640375</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H12" s="7">
         <v>465</v>
@@ -5015,13 +5018,13 @@
         <v>495479</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M12" s="7">
         <v>1067</v>
@@ -5030,13 +5033,13 @@
         <v>1135855</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,7 +5095,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5104,13 +5107,13 @@
         <v>7227</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5119,13 +5122,13 @@
         <v>1043</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>167</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -5134,13 +5137,13 @@
         <v>8270</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>372</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>376</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5158,13 @@
         <v>41032</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H15" s="7">
         <v>43</v>
@@ -5170,13 +5173,13 @@
         <v>44035</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M15" s="7">
         <v>79</v>
@@ -5185,13 +5188,13 @@
         <v>85068</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5209,13 @@
         <v>241706</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>300</v>
@@ -5221,13 +5224,13 @@
         <v>313268</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>523</v>
@@ -5236,13 +5239,13 @@
         <v>554974</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5260,13 @@
         <v>250962</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H17" s="7">
         <v>178</v>
@@ -5272,13 +5275,13 @@
         <v>186501</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M17" s="7">
         <v>409</v>
@@ -5287,13 +5290,13 @@
         <v>437463</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5364,13 @@
         <v>90528</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>272</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>15</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -5376,13 +5379,13 @@
         <v>17123</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>101</v>
@@ -5391,13 +5394,13 @@
         <v>107651</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5415,13 @@
         <v>387625</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -5427,13 +5430,13 @@
         <v>263254</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>613</v>
@@ -5442,13 +5445,13 @@
         <v>650879</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5466,13 @@
         <v>1643264</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H21" s="7">
         <v>2042</v>
@@ -5478,13 +5481,13 @@
         <v>2134157</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M21" s="7">
         <v>3606</v>
@@ -5493,13 +5496,13 @@
         <v>3777422</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5517,13 @@
         <v>1230990</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H22" s="7">
         <v>997</v>
@@ -5529,13 +5532,13 @@
         <v>1101698</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>264</v>
+        <v>431</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M22" s="7">
         <v>2183</v>
@@ -5544,13 +5547,13 @@
         <v>2332688</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,7 +5609,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5625,7 +5628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B0C513-7085-402B-86B4-CB08C001ADDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29ABA900-9AF4-42B9-B3B1-462EE11958DE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5642,7 +5645,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5749,10 +5752,10 @@
         <v>31680</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>381</v>
+        <v>437</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>91</v>
+        <v>438</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>439</v>
@@ -5770,7 +5773,7 @@
         <v>441</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>442</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -5779,13 +5782,13 @@
         <v>36495</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5803,13 @@
         <v>98855</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="H5" s="7">
         <v>131</v>
@@ -5815,13 +5818,13 @@
         <v>78908</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="M5" s="7">
         <v>259</v>
@@ -5830,13 +5833,13 @@
         <v>177763</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5854,13 @@
         <v>178002</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="H6" s="7">
         <v>557</v>
@@ -5866,13 +5869,13 @@
         <v>334081</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="M6" s="7">
         <v>769</v>
@@ -5881,10 +5884,10 @@
         <v>512084</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>461</v>
@@ -6024,10 +6027,10 @@
         <v>474</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>475</v>
       </c>
       <c r="M9" s="7">
         <v>251</v>
@@ -6036,13 +6039,13 @@
         <v>245412</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>105</v>
+        <v>476</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>200</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,13 +6060,13 @@
         <v>536856</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="H10" s="7">
         <v>590</v>
@@ -6072,13 +6075,13 @@
         <v>448498</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="M10" s="7">
         <v>1042</v>
@@ -6087,13 +6090,13 @@
         <v>985354</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,13 +6111,13 @@
         <v>789680</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="H11" s="7">
         <v>1520</v>
@@ -6123,13 +6126,13 @@
         <v>1192447</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="M11" s="7">
         <v>2274</v>
@@ -6138,13 +6141,13 @@
         <v>1982127</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,13 +6162,13 @@
         <v>628145</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H12" s="7">
         <v>717</v>
@@ -6174,13 +6177,13 @@
         <v>540705</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="M12" s="7">
         <v>1321</v>
@@ -6189,13 +6192,13 @@
         <v>1168849</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,7 +6254,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6263,13 +6266,13 @@
         <v>10385</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -6278,13 +6281,13 @@
         <v>11134</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -6293,13 +6296,13 @@
         <v>21520</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6314,13 +6317,13 @@
         <v>82034</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="H15" s="7">
         <v>127</v>
@@ -6329,13 +6332,13 @@
         <v>91367</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="M15" s="7">
         <v>213</v>
@@ -6344,13 +6347,13 @@
         <v>173402</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6365,13 +6368,13 @@
         <v>237936</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="H16" s="7">
         <v>445</v>
@@ -6380,13 +6383,13 @@
         <v>301490</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="M16" s="7">
         <v>693</v>
@@ -6395,13 +6398,13 @@
         <v>539426</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,13 +6419,13 @@
         <v>337270</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H17" s="7">
         <v>416</v>
@@ -6431,13 +6434,13 @@
         <v>307387</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>531</v>
+        <v>384</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="M17" s="7">
         <v>748</v>
@@ -6446,13 +6449,13 @@
         <v>644657</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,13 +6523,13 @@
         <v>227907</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H19" s="7">
         <v>102</v>
@@ -6535,13 +6538,13 @@
         <v>75520</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>323</v>
@@ -6550,13 +6553,13 @@
         <v>303427</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>542</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6571,13 +6574,13 @@
         <v>717745</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H20" s="7">
         <v>848</v>
@@ -6586,13 +6589,13 @@
         <v>618773</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>548</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M20" s="7">
         <v>1514</v>
@@ -6601,13 +6604,13 @@
         <v>1336518</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,13 +6625,13 @@
         <v>1205619</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H21" s="7">
         <v>2522</v>
@@ -6637,13 +6640,13 @@
         <v>1828018</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M21" s="7">
         <v>3736</v>
@@ -6652,13 +6655,13 @@
         <v>3033637</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,13 +6676,13 @@
         <v>1195103</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>560</v>
+        <v>46</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H22" s="7">
         <v>1854</v>
@@ -6688,13 +6691,13 @@
         <v>1256915</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>3099</v>
@@ -6703,13 +6706,13 @@
         <v>2452019</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6765,7 +6768,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B972C676-29D8-45C3-A655-3BD44A556B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14ED1DAC-DFC2-4E48-81CD-C127801872EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D492E52C-80DA-4CE3-9904-4250970F8195}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{787A75FB-2A7C-4A09-BED7-5AA2FE279051}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="568">
   <si>
     <t>Población según el ejercicio físico que implica su actividad laboral en 2007 (Tasa respuesta: 99,11%)</t>
   </si>
@@ -80,1666 +80,1669 @@
     <t>6,04%</t>
   </si>
   <si>
-    <t>9,64%</t>
+    <t>9,65%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>Caminando, llevando algún peso, desplazamientos frecuentes</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>De pie la mayor parte sin grandes desplazamientos o esfuerzo</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>Sentado la mayor parte de la jornada</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el ejercicio físico que implica su actividad laboral en 2012 (Tasa respuesta: 99,28%)</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>Caminando, llevando algún peso, desplazamientos frecuentes</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>De pie la mayor parte sin grandes desplazamientos o esfuerzo</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>Sentado la mayor parte de la jornada</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>Población según el ejercicio físico que implica su actividad laboral en 2016 (Tasa respuesta: 99,41%)</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>Población según el ejercicio físico que implica su actividad laboral en 2023 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
   </si>
   <si>
     <t>33,18%</t>
   </si>
   <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el ejercicio físico que implica su actividad laboral en 2012 (Tasa respuesta: 99,28%)</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>Población según el ejercicio físico que implica su actividad laboral en 2016 (Tasa respuesta: 99,41%)</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>Población según el ejercicio físico que implica su actividad laboral en 2023 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
     <t>37,7%</t>
   </si>
   <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
     <t>33,26%</t>
   </si>
   <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
     <t>34,41%</t>
   </si>
   <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
   </si>
 </sst>
 </file>
@@ -2151,7 +2154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6D3EDC-A4D3-47BD-A101-F6CBF8318639}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325374D2-AC07-4773-9BC2-56AD3566608E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2565,10 +2568,10 @@
         <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2586,13 @@
         <v>343110</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>140</v>
@@ -2598,10 +2601,10 @@
         <v>148001</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>65</v>
@@ -2858,10 +2861,10 @@
         <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>71</v>
@@ -2870,13 +2873,13 @@
         <v>73419</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2894,13 @@
         <v>200341</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>202</v>
@@ -2906,13 +2909,13 @@
         <v>213768</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>389</v>
@@ -2921,13 +2924,13 @@
         <v>414109</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2945,13 @@
         <v>281495</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>217</v>
@@ -2957,13 +2960,13 @@
         <v>227231</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>491</v>
@@ -2972,13 +2975,13 @@
         <v>508726</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3049,13 @@
         <v>242261</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>134</v>
@@ -3061,13 +3064,13 @@
         <v>135360</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>365</v>
@@ -3076,13 +3079,13 @@
         <v>377621</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3100,13 @@
         <v>519716</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>220</v>
@@ -3112,7 +3115,7 @@
         <v>229773</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>135</v>
@@ -3205,7 +3208,7 @@
         <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>1029</v>
@@ -3214,13 +3217,13 @@
         <v>1048141</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>2290</v>
@@ -3229,13 +3232,13 @@
         <v>2305437</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,7 +3294,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3310,7 +3313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACE2613-7702-4EC2-82D2-7DACA02933C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEA69B3-94AD-4E58-8908-DDB2F8351F9B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3327,7 +3330,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3434,13 +3437,13 @@
         <v>25833</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -3449,13 +3452,13 @@
         <v>6209</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -3464,13 +3467,13 @@
         <v>32043</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3488,13 @@
         <v>109526</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>97</v>
@@ -3500,13 +3503,13 @@
         <v>104769</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>198</v>
@@ -3515,13 +3518,13 @@
         <v>214295</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3539,13 @@
         <v>497898</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>696</v>
@@ -3551,13 +3554,13 @@
         <v>746044</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M6" s="7">
         <v>1166</v>
@@ -3566,13 +3569,13 @@
         <v>1243942</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3590,13 @@
         <v>335904</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H7" s="7">
         <v>439</v>
@@ -3602,13 +3605,13 @@
         <v>471332</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M7" s="7">
         <v>746</v>
@@ -3617,13 +3620,13 @@
         <v>807236</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3694,13 @@
         <v>103858</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -3706,13 +3709,13 @@
         <v>11931</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M9" s="7">
         <v>112</v>
@@ -3721,13 +3724,13 @@
         <v>115789</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3745,13 @@
         <v>306255</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H10" s="7">
         <v>178</v>
@@ -3757,13 +3760,13 @@
         <v>192432</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M10" s="7">
         <v>471</v>
@@ -3772,13 +3775,13 @@
         <v>498687</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3796,13 @@
         <v>988043</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H11" s="7">
         <v>1052</v>
@@ -3808,13 +3811,13 @@
         <v>1135039</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M11" s="7">
         <v>1982</v>
@@ -3823,13 +3826,13 @@
         <v>2123082</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>117</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3847,13 @@
         <v>551545</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H12" s="7">
         <v>383</v>
@@ -3859,13 +3862,13 @@
         <v>407996</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M12" s="7">
         <v>902</v>
@@ -3874,13 +3877,13 @@
         <v>959541</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3951,13 @@
         <v>7975</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -3963,13 +3966,13 @@
         <v>5654</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -3978,13 +3981,13 @@
         <v>13628</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,10 +4002,10 @@
         <v>45352</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>239</v>
@@ -4068,10 +4071,10 @@
         <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>451</v>
@@ -4080,13 +4083,13 @@
         <v>496091</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4104,13 @@
         <v>187537</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -4116,13 +4119,13 @@
         <v>155072</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>311</v>
@@ -4131,13 +4134,13 @@
         <v>342610</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4208,13 @@
         <v>137666</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -4220,13 +4223,13 @@
         <v>23793</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M19" s="7">
         <v>154</v>
@@ -4235,13 +4238,13 @@
         <v>161460</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,13 +4259,13 @@
         <v>461133</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>303</v>
@@ -4271,13 +4274,13 @@
         <v>329427</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M20" s="7">
         <v>737</v>
@@ -4286,13 +4289,13 @@
         <v>790561</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4310,13 @@
         <v>1722254</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H21" s="7">
         <v>1985</v>
@@ -4322,13 +4325,13 @@
         <v>2140860</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M21" s="7">
         <v>3599</v>
@@ -4337,13 +4340,13 @@
         <v>3863115</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4361,13 @@
         <v>1074987</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H22" s="7">
         <v>960</v>
@@ -4373,13 +4376,13 @@
         <v>1034400</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M22" s="7">
         <v>1959</v>
@@ -4388,13 +4391,13 @@
         <v>2109387</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,7 +4453,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4469,7 +4472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E41DF2-2D28-4830-93B7-865FA13D57E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E8C874-B958-41A1-BB8F-AEDF2FC9D8A2}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4486,7 +4489,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4593,13 +4596,13 @@
         <v>11893</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4608,13 +4611,13 @@
         <v>3830</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4623,13 +4626,13 @@
         <v>15723</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>308</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4647,13 @@
         <v>75197</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
@@ -4659,13 +4662,13 @@
         <v>44163</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="M5" s="7">
         <v>114</v>
@@ -4674,13 +4677,13 @@
         <v>119360</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4698,13 @@
         <v>323957</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>319</v>
+        <v>114</v>
       </c>
       <c r="H6" s="7">
         <v>486</v>
@@ -4710,13 +4713,13 @@
         <v>521533</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>144</v>
+        <v>319</v>
       </c>
       <c r="M6" s="7">
         <v>809</v>
@@ -4725,13 +4728,13 @@
         <v>845491</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,13 +4749,13 @@
         <v>339653</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H7" s="7">
         <v>354</v>
@@ -4761,13 +4764,13 @@
         <v>419717</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>707</v>
@@ -4776,13 +4779,13 @@
         <v>759370</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4853,13 @@
         <v>71409</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -4865,13 +4868,13 @@
         <v>12250</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M9" s="7">
         <v>79</v>
@@ -4880,13 +4883,13 @@
         <v>83658</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4904,13 @@
         <v>271396</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H10" s="7">
         <v>169</v>
@@ -4916,13 +4919,13 @@
         <v>175056</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M10" s="7">
         <v>420</v>
@@ -4931,13 +4934,13 @@
         <v>446451</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4955,13 @@
         <v>1077601</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H11" s="7">
         <v>1256</v>
@@ -5039,7 +5042,7 @@
         <v>365</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>366</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5110,13 @@
         <v>7227</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5122,13 +5125,13 @@
         <v>1043</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -5143,7 +5146,7 @@
         <v>373</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,13 +5161,13 @@
         <v>41032</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H15" s="7">
         <v>43</v>
@@ -5173,13 +5176,13 @@
         <v>44035</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M15" s="7">
         <v>79</v>
@@ -5188,13 +5191,13 @@
         <v>85068</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>382</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,13 +5367,13 @@
         <v>90528</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>272</v>
+        <v>401</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -5379,13 +5382,13 @@
         <v>17123</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M19" s="7">
         <v>101</v>
@@ -5394,13 +5397,13 @@
         <v>107651</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,13 +5418,13 @@
         <v>387625</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -5430,13 +5433,13 @@
         <v>263254</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>613</v>
@@ -5445,13 +5448,13 @@
         <v>650879</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5469,13 @@
         <v>1643264</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H21" s="7">
         <v>2042</v>
@@ -5481,13 +5484,13 @@
         <v>2134157</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M21" s="7">
         <v>3606</v>
@@ -5496,13 +5499,13 @@
         <v>3777422</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5520,13 @@
         <v>1230990</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H22" s="7">
         <v>997</v>
@@ -5532,13 +5535,13 @@
         <v>1101698</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M22" s="7">
         <v>2183</v>
@@ -5547,13 +5550,13 @@
         <v>2332688</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,7 +5612,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -5628,7 +5631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29ABA900-9AF4-42B9-B3B1-462EE11958DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558797ED-5291-4F53-A85C-B8FEE1047960}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5645,7 +5648,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5752,13 +5755,13 @@
         <v>31680</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5767,13 +5770,13 @@
         <v>4816</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>443</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -5782,13 +5785,13 @@
         <v>36495</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5806,13 @@
         <v>98855</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H5" s="7">
         <v>131</v>
@@ -5818,13 +5821,13 @@
         <v>78908</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M5" s="7">
         <v>259</v>
@@ -5833,13 +5836,13 @@
         <v>177763</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5857,13 @@
         <v>178002</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H6" s="7">
         <v>557</v>
@@ -5869,13 +5872,13 @@
         <v>334081</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M6" s="7">
         <v>769</v>
@@ -5884,13 +5887,13 @@
         <v>512084</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>460</v>
+        <v>192</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5905,13 +5908,13 @@
         <v>229688</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H7" s="7">
         <v>721</v>
@@ -5920,13 +5923,13 @@
         <v>408824</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M7" s="7">
         <v>1030</v>
@@ -5935,13 +5938,13 @@
         <v>638512</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +6012,13 @@
         <v>185843</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H9" s="7">
         <v>81</v>
@@ -6024,13 +6027,13 @@
         <v>59570</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>339</v>
+        <v>476</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>475</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>251</v>
@@ -6039,13 +6042,13 @@
         <v>245412</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6060,13 +6063,13 @@
         <v>536856</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H10" s="7">
         <v>590</v>
@@ -6075,13 +6078,13 @@
         <v>448498</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M10" s="7">
         <v>1042</v>
@@ -6090,7 +6093,7 @@
         <v>985354</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>485</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>486</v>
@@ -6114,10 +6117,10 @@
         <v>488</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="H11" s="7">
         <v>1520</v>
@@ -6126,13 +6129,13 @@
         <v>1192447</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="M11" s="7">
         <v>2274</v>
@@ -6141,13 +6144,13 @@
         <v>1982127</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,13 +6165,13 @@
         <v>628145</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="H12" s="7">
         <v>717</v>
@@ -6177,13 +6180,13 @@
         <v>540705</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>500</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>501</v>
+        <v>222</v>
       </c>
       <c r="M12" s="7">
         <v>1321</v>
@@ -6192,13 +6195,13 @@
         <v>1168849</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6266,13 +6269,13 @@
         <v>10385</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -6281,13 +6284,13 @@
         <v>11134</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -6296,13 +6299,13 @@
         <v>21520</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,13 +6320,13 @@
         <v>82034</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>513</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H15" s="7">
         <v>127</v>
@@ -6332,13 +6335,13 @@
         <v>91367</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M15" s="7">
         <v>213</v>
@@ -6347,13 +6350,13 @@
         <v>173402</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6368,13 +6371,13 @@
         <v>237936</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H16" s="7">
         <v>445</v>
@@ -6383,13 +6386,13 @@
         <v>301490</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="M16" s="7">
         <v>693</v>
@@ -6398,13 +6401,13 @@
         <v>539426</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6419,13 +6422,13 @@
         <v>337270</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H17" s="7">
         <v>416</v>
@@ -6434,13 +6437,13 @@
         <v>307387</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>384</v>
+        <v>531</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M17" s="7">
         <v>748</v>
@@ -6449,13 +6452,13 @@
         <v>644657</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,13 +6526,13 @@
         <v>227907</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="H19" s="7">
         <v>102</v>
@@ -6538,13 +6541,13 @@
         <v>75520</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>542</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>540</v>
       </c>
       <c r="M19" s="7">
         <v>323</v>
@@ -6553,13 +6556,13 @@
         <v>303427</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>443</v>
+        <v>202</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>266</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,13 +6577,13 @@
         <v>717745</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="H20" s="7">
         <v>848</v>
@@ -6589,13 +6592,13 @@
         <v>618773</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="M20" s="7">
         <v>1514</v>
@@ -6604,13 +6607,13 @@
         <v>1336518</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,13 +6628,13 @@
         <v>1205619</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="H21" s="7">
         <v>2522</v>
@@ -6640,28 +6643,28 @@
         <v>1828018</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="M21" s="7">
         <v>3736</v>
       </c>
       <c r="N21" s="7">
-        <v>3033637</v>
+        <v>3033636</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>559</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>560</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6679,13 @@
         <v>1195103</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="H22" s="7">
         <v>1854</v>
@@ -6691,28 +6694,28 @@
         <v>1256915</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>564</v>
       </c>
       <c r="M22" s="7">
         <v>3099</v>
       </c>
       <c r="N22" s="7">
-        <v>2452019</v>
+        <v>2452018</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,7 +6757,7 @@
         <v>8672</v>
       </c>
       <c r="N23" s="7">
-        <v>7125601</v>
+        <v>7125600</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -6768,7 +6771,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14ED1DAC-DFC2-4E48-81CD-C127801872EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B07AB63A-F79E-44F8-998B-AF16E2762013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{787A75FB-2A7C-4A09-BED7-5AA2FE279051}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2DB8B877-03E4-40E8-B1D6-B70234AE779D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1355,394 +1355,394 @@
     <t>Población según el ejercicio físico que implica su actividad laboral en 2023 (Tasa respuesta: 99,45%)</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
   </si>
   <si>
     <t>38,97%</t>
   </si>
   <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
   </si>
   <si>
     <t>46,75%</t>
   </si>
   <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
   </si>
 </sst>
 </file>
@@ -2154,7 +2154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325374D2-AC07-4773-9BC2-56AD3566608E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A907476-77C1-4905-9A99-90B3FC3CA73B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3313,7 +3313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEA69B3-94AD-4E58-8908-DDB2F8351F9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4605C0FC-9B38-4D4F-95B7-1389C1831237}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3551,7 +3551,7 @@
         <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>746044</v>
+        <v>746043</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>180</v>
@@ -3653,7 +3653,7 @@
         <v>1238</v>
       </c>
       <c r="I8" s="7">
-        <v>1328354</v>
+        <v>1328353</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -4409,7 +4409,7 @@
         <v>3179</v>
       </c>
       <c r="D23" s="7">
-        <v>3396040</v>
+        <v>3396041</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -4472,7 +4472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E8C874-B958-41A1-BB8F-AEDF2FC9D8A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40AD588-5A2E-4E16-B725-586CC581E590}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4725,7 +4725,7 @@
         <v>809</v>
       </c>
       <c r="N6" s="7">
-        <v>845491</v>
+        <v>845490</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>320</v>
@@ -4827,7 +4827,7 @@
         <v>1645</v>
       </c>
       <c r="N8" s="7">
-        <v>1739944</v>
+        <v>1739943</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -5033,7 +5033,7 @@
         <v>1067</v>
       </c>
       <c r="N12" s="7">
-        <v>1135855</v>
+        <v>1135854</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>364</v>
@@ -5084,7 +5084,7 @@
         <v>3840</v>
       </c>
       <c r="N13" s="7">
-        <v>4042922</v>
+        <v>4042921</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -5631,7 +5631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558797ED-5291-4F53-A85C-B8FEE1047960}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A2EFCF-E997-48D9-AF1C-C92494B172A5}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5752,46 +5752,46 @@
         <v>39</v>
       </c>
       <c r="D4" s="7">
-        <v>31680</v>
+        <v>29915</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>438</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>4816</v>
+        <v>4393</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
       </c>
       <c r="N4" s="7">
-        <v>36495</v>
+        <v>34308</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,46 +5803,46 @@
         <v>128</v>
       </c>
       <c r="D5" s="7">
-        <v>98855</v>
+        <v>93529</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="H5" s="7">
         <v>131</v>
       </c>
       <c r="I5" s="7">
-        <v>78908</v>
+        <v>72351</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="M5" s="7">
         <v>259</v>
       </c>
       <c r="N5" s="7">
-        <v>177763</v>
+        <v>165880</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,46 +5854,46 @@
         <v>212</v>
       </c>
       <c r="D6" s="7">
-        <v>178002</v>
+        <v>169526</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="H6" s="7">
         <v>557</v>
       </c>
       <c r="I6" s="7">
-        <v>334081</v>
+        <v>301910</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="M6" s="7">
         <v>769</v>
       </c>
       <c r="N6" s="7">
-        <v>512084</v>
+        <v>471436</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5905,46 +5905,46 @@
         <v>309</v>
       </c>
       <c r="D7" s="7">
-        <v>229688</v>
+        <v>218915</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="H7" s="7">
         <v>721</v>
       </c>
       <c r="I7" s="7">
-        <v>408824</v>
+        <v>368779</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="M7" s="7">
         <v>1030</v>
       </c>
       <c r="N7" s="7">
-        <v>638512</v>
+        <v>587693</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5956,7 +5956,7 @@
         <v>688</v>
       </c>
       <c r="D8" s="7">
-        <v>538224</v>
+        <v>511885</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -5971,7 +5971,7 @@
         <v>1417</v>
       </c>
       <c r="I8" s="7">
-        <v>826629</v>
+        <v>747433</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -5986,7 +5986,7 @@
         <v>2105</v>
       </c>
       <c r="N8" s="7">
-        <v>1364854</v>
+        <v>1259318</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -6009,37 +6009,37 @@
         <v>170</v>
       </c>
       <c r="D9" s="7">
-        <v>185843</v>
+        <v>176180</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="H9" s="7">
         <v>81</v>
       </c>
       <c r="I9" s="7">
-        <v>59570</v>
+        <v>55429</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>251</v>
       </c>
       <c r="N9" s="7">
-        <v>245412</v>
+        <v>231609</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>477</v>
@@ -6060,7 +6060,7 @@
         <v>452</v>
       </c>
       <c r="D10" s="7">
-        <v>536856</v>
+        <v>704623</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>480</v>
@@ -6075,7 +6075,7 @@
         <v>590</v>
       </c>
       <c r="I10" s="7">
-        <v>448498</v>
+        <v>463008</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>483</v>
@@ -6090,16 +6090,16 @@
         <v>1042</v>
       </c>
       <c r="N10" s="7">
-        <v>985354</v>
+        <v>1167631</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>486</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6111,28 +6111,28 @@
         <v>754</v>
       </c>
       <c r="D11" s="7">
-        <v>789680</v>
+        <v>761740</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>488</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>155</v>
+        <v>489</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H11" s="7">
         <v>1520</v>
       </c>
       <c r="I11" s="7">
-        <v>1192447</v>
+        <v>1211994</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>491</v>
+        <v>390</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>492</v>
@@ -6141,16 +6141,16 @@
         <v>2274</v>
       </c>
       <c r="N11" s="7">
-        <v>1982127</v>
+        <v>1973734</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>323</v>
+        <v>493</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,46 +6162,46 @@
         <v>604</v>
       </c>
       <c r="D12" s="7">
-        <v>628145</v>
+        <v>624662</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H12" s="7">
         <v>717</v>
       </c>
       <c r="I12" s="7">
-        <v>540705</v>
+        <v>500369</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>222</v>
+        <v>501</v>
       </c>
       <c r="M12" s="7">
         <v>1321</v>
       </c>
       <c r="N12" s="7">
-        <v>1168849</v>
+        <v>1125031</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6213,7 +6213,7 @@
         <v>1980</v>
       </c>
       <c r="D13" s="7">
-        <v>2140524</v>
+        <v>2267205</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -6228,7 +6228,7 @@
         <v>2908</v>
       </c>
       <c r="I13" s="7">
-        <v>2241219</v>
+        <v>2230799</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -6243,7 +6243,7 @@
         <v>4888</v>
       </c>
       <c r="N13" s="7">
-        <v>4381743</v>
+        <v>4498004</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -6266,46 +6266,46 @@
         <v>12</v>
       </c>
       <c r="D14" s="7">
-        <v>10385</v>
+        <v>9883</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
       </c>
       <c r="I14" s="7">
-        <v>11134</v>
+        <v>10348</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>407</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>506</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
       </c>
       <c r="N14" s="7">
-        <v>21520</v>
+        <v>20230</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>509</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,37 +6317,37 @@
         <v>86</v>
       </c>
       <c r="D15" s="7">
-        <v>82034</v>
+        <v>80805</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>510</v>
+        <v>208</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>511</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H15" s="7">
         <v>127</v>
       </c>
       <c r="I15" s="7">
-        <v>91367</v>
+        <v>83952</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>514</v>
+        <v>66</v>
       </c>
       <c r="M15" s="7">
         <v>213</v>
       </c>
       <c r="N15" s="7">
-        <v>173402</v>
+        <v>164757</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>515</v>
@@ -6368,46 +6368,46 @@
         <v>248</v>
       </c>
       <c r="D16" s="7">
-        <v>237936</v>
+        <v>225764</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>518</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="H16" s="7">
         <v>445</v>
       </c>
       <c r="I16" s="7">
-        <v>301490</v>
+        <v>276182</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="M16" s="7">
         <v>693</v>
       </c>
       <c r="N16" s="7">
-        <v>539426</v>
+        <v>501946</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6419,46 +6419,46 @@
         <v>332</v>
       </c>
       <c r="D17" s="7">
-        <v>337270</v>
+        <v>324626</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="H17" s="7">
         <v>416</v>
       </c>
       <c r="I17" s="7">
-        <v>307387</v>
+        <v>287636</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="M17" s="7">
         <v>748</v>
       </c>
       <c r="N17" s="7">
-        <v>644657</v>
+        <v>612262</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6470,7 +6470,7 @@
         <v>678</v>
       </c>
       <c r="D18" s="7">
-        <v>667626</v>
+        <v>641078</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -6485,7 +6485,7 @@
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>711378</v>
+        <v>658117</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -6500,7 +6500,7 @@
         <v>1679</v>
       </c>
       <c r="N18" s="7">
-        <v>1379004</v>
+        <v>1299195</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -6523,43 +6523,43 @@
         <v>221</v>
       </c>
       <c r="D19" s="7">
-        <v>227907</v>
+        <v>215978</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="H19" s="7">
         <v>102</v>
       </c>
       <c r="I19" s="7">
-        <v>75520</v>
+        <v>70169</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="M19" s="7">
         <v>323</v>
       </c>
       <c r="N19" s="7">
-        <v>303427</v>
+        <v>286147</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>542</v>
@@ -6574,7 +6574,7 @@
         <v>666</v>
       </c>
       <c r="D20" s="7">
-        <v>717745</v>
+        <v>878957</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>543</v>
@@ -6589,25 +6589,25 @@
         <v>848</v>
       </c>
       <c r="I20" s="7">
-        <v>618773</v>
+        <v>619311</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>546</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>211</v>
+        <v>547</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M20" s="7">
         <v>1514</v>
       </c>
       <c r="N20" s="7">
-        <v>1336518</v>
+        <v>1498268</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>548</v>
+        <v>225</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>549</v>
@@ -6625,7 +6625,7 @@
         <v>1214</v>
       </c>
       <c r="D21" s="7">
-        <v>1205619</v>
+        <v>1157030</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>551</v>
@@ -6640,7 +6640,7 @@
         <v>2522</v>
       </c>
       <c r="I21" s="7">
-        <v>1828018</v>
+        <v>1790086</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>554</v>
@@ -6655,7 +6655,7 @@
         <v>3736</v>
       </c>
       <c r="N21" s="7">
-        <v>3033636</v>
+        <v>2947116</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>557</v>
@@ -6664,7 +6664,7 @@
         <v>558</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>328</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,25 +6676,25 @@
         <v>1245</v>
       </c>
       <c r="D22" s="7">
-        <v>1195103</v>
+        <v>1168203</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H22" s="7">
         <v>1854</v>
       </c>
       <c r="I22" s="7">
-        <v>1256915</v>
+        <v>1156783</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>562</v>
+        <v>498</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>563</v>
@@ -6706,7 +6706,7 @@
         <v>3099</v>
       </c>
       <c r="N22" s="7">
-        <v>2452018</v>
+        <v>2324986</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>565</v>
@@ -6727,7 +6727,7 @@
         <v>3346</v>
       </c>
       <c r="D23" s="7">
-        <v>3346374</v>
+        <v>3420168</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -6742,7 +6742,7 @@
         <v>5326</v>
       </c>
       <c r="I23" s="7">
-        <v>3779226</v>
+        <v>3636350</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -6757,7 +6757,7 @@
         <v>8672</v>
       </c>
       <c r="N23" s="7">
-        <v>7125600</v>
+        <v>7056517</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
